--- a/figs/re-classification/Workbook1.xlsx
+++ b/figs/re-classification/Workbook1.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuxianming/Dropbox/Research/Submissions/fnn_paper/figs/re-classification/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="520" windowWidth="21100" windowHeight="14440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -151,6 +156,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -484,20 +494,21 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2111832072"/>
-        <c:axId val="2111931432"/>
+        <c:axId val="2143654032"/>
+        <c:axId val="2143657232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2111832072"/>
+        <c:axId val="2143654032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111931432"/>
+        <c:crossAx val="2143657232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -505,7 +516,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2111931432"/>
+        <c:axId val="2143657232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -516,7 +527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111832072"/>
+        <c:crossAx val="2143654032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -545,16 +556,26 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.057490813648294"/>
+          <c:y val="0.0320977404998288"/>
+          <c:w val="0.92445363079615"/>
+          <c:h val="0.829747175624786"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -573,6 +594,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -648,6 +678,15 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
@@ -710,7 +749,6 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -718,40 +756,133 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2143523688"/>
-        <c:axId val="2145541592"/>
+        <c:gapWidth val="267"/>
+        <c:overlap val="-43"/>
+        <c:axId val="2143749792"/>
+        <c:axId val="2141697328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2143523688"/>
+        <c:axId val="2143749792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600"/>
                   <a:t>Proportion of Bounding Box Area w.r.t. the Image </a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.281918963254593"/>
+              <c:y val="0.939424683327627"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2145541592"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2141697328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,49 +890,122 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2145541592"/>
+        <c:axId val="2141697328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.05"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="0%" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2143523688"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2143749792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="l"/>
+      <c:legendPos val="b"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.111111111111111"/>
-          <c:y val="0.0297087343248761"/>
-          <c:w val="0.305607392825897"/>
-          <c:h val="0.171305774278215"/>
+          <c:x val="0.0674640201224846"/>
+          <c:y val="0.0502714823690517"/>
+          <c:w val="0.234516294838145"/>
+          <c:h val="0.114945908935296"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="1"/>
+      <c:overlay val="0"/>
       <c:spPr>
+        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:ln>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:round/>
     </a:ln>
     <a:effectLst/>
   </c:spPr>
@@ -810,7 +1014,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2400" b="0"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -821,6 +1025,595 @@
     <c:pageSetup orientation="portrait" horizontalDpi="-4" verticalDpi="-4"/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="208">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -857,16 +1650,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1214,13 +2007,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +2033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1265,7 +2058,7 @@
         <v>1.2900000000000023E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1290,7 +2083,7 @@
         <v>1.9199999999999995E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1315,7 +2108,7 @@
         <v>2.2300000000000098E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1340,7 +2133,7 @@
         <v>2.6100000000000012E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1365,7 +2158,7 @@
         <v>3.1299999999999994E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1390,7 +2183,7 @@
         <v>3.7899999999999934E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1415,7 +2208,7 @@
         <v>4.1400000000000103E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>13</v>
       </c>
@@ -1423,7 +2216,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1436,7 +2229,7 @@
         <v>1.2900000000000023E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1449,7 +2242,7 @@
         <v>1.9199999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +2255,7 @@
         <v>2.2300000000000098E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1475,7 +2268,7 @@
         <v>2.6100000000000012E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1488,7 +2281,7 @@
         <v>3.1299999999999994E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +2294,7 @@
         <v>3.7899999999999934E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1518,10 +2311,5 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>